--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/24677315/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9978647828102112</v>
+        <v>0.9491515159606934</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9627435803413391</v>
+        <v>0.9230685830116272</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9739886522293091</v>
+        <v>0.7724456191062927</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9981189370155334</v>
+        <v>0.9505526423454285</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9981139898300171</v>
+        <v>0.9508205056190491</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9981516003608704</v>
+        <v>0.9514693021774292</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9981244206428528</v>
+        <v>0.9506204128265381</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9981516003608704</v>
+        <v>0.9514693021774292</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9981094598770142</v>
+        <v>0.9516515731811523</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9981943964958191</v>
+        <v>0.9520260691642761</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9910565614700317</v>
+        <v>0.9148032069206238</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981433153152466</v>
+        <v>0.9517192840576172</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980280995368958</v>
+        <v>0.9109485149383545</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9981335997581482</v>
+        <v>0.9504645466804504</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9981498718261719</v>
+        <v>0.9504215717315674</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7001787424087524</v>
+        <v>0.492370218038559</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9981143474578857</v>
+        <v>0.9507615566253662</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9982105493545532</v>
+        <v>0.9518948793411255</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.99814772605896</v>
+        <v>0.9507594704627991</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99818354845047</v>
+        <v>0.951404869556427</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9981306195259094</v>
+        <v>0.951158881187439</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9981733560562134</v>
+        <v>0.9517133235931396</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9730204939842224</v>
+        <v>0.7738891839981079</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4951824843883514</v>
+        <v>0.4555361866950989</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9980383515357971</v>
+        <v>0.9502140283584595</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9980979561805725</v>
+        <v>0.9505330324172974</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9980549812316895</v>
+        <v>0.9498074054718018</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9980345368385315</v>
+        <v>0.9491217732429504</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9981216788291931</v>
+        <v>0.9502541422843933</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9812743067741394</v>
+        <v>0.8834009766578674</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9903054237365723</v>
+        <v>0.9028759598731995</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9910082221031189</v>
+        <v>0.9141616821289062</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9980894923210144</v>
+        <v>0.9506685733795166</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9910417199134827</v>
+        <v>0.9142370820045471</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9981603026390076</v>
+        <v>0.9518819451332092</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8261996507644653</v>
+        <v>0.8908358812332153</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.981916069984436</v>
+        <v>0.8806262612342834</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9981638789176941</v>
+        <v>0.9518736004829407</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9804334044456482</v>
+        <v>0.8141267895698547</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.981834352016449</v>
+        <v>0.8854355812072754</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9908453822135925</v>
+        <v>0.9138786196708679</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9821012616157532</v>
+        <v>0.8860319256782532</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9804747700691223</v>
+        <v>0.8801209330558777</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8983427882194519</v>
+        <v>0.5044912695884705</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9811083674430847</v>
+        <v>0.8854333758354187</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9981923699378967</v>
+        <v>0.9523913860321045</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9803639650344849</v>
+        <v>0.8792829513549805</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9801838994026184</v>
+        <v>0.8746905922889709</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9980397820472717</v>
+        <v>0.9487305283546448</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9803639650344849</v>
+        <v>0.8792829513549805</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9797316193580627</v>
+        <v>0.8775742053985596</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9981092214584351</v>
+        <v>0.9506428837776184</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9981422424316406</v>
+        <v>0.9517521262168884</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9981712102890015</v>
+        <v>0.9519145488739014</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9911906719207764</v>
+        <v>0.9150659441947937</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9981355667114258</v>
+        <v>0.9505113959312439</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9980579018592834</v>
+        <v>0.9501794576644897</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.998149037361145</v>
+        <v>0.9510055780410767</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9981651902198792</v>
+        <v>0.9517614245414734</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9910491704940796</v>
+        <v>0.9143961668014526</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9501820206642151</v>
+        <v>0.4860151708126068</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.991312563419342</v>
+        <v>0.916263222694397</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.991312563419342</v>
+        <v>0.916263222694397</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.990454375743866</v>
+        <v>0.9120373129844666</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.991312563419342</v>
+        <v>0.916263222694397</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9817125201225281</v>
+        <v>0.6213563084602356</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9981124401092529</v>
+        <v>0.950791597366333</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9683579802513123</v>
+        <v>0.860899806022644</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9979923963546753</v>
+        <v>0.9476719498634338</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.991036057472229</v>
+        <v>0.9170736074447632</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9981873631477356</v>
+        <v>0.9515650272369385</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9980521202087402</v>
+        <v>0.9497861266136169</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.991036057472229</v>
+        <v>0.9170736074447632</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.949338972568512</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.991036057472229</v>
+        <v>0.9170736074447632</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9981330037117004</v>
+        <v>0.9513481259346008</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9909979104995728</v>
+        <v>0.9138599038124084</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9980695843696594</v>
+        <v>0.9494452476501465</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9909979104995728</v>
+        <v>0.9138599038124084</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9980432987213135</v>
+        <v>0.9494163393974304</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9980432987213135</v>
+        <v>0.9494163393974304</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9981915354728699</v>
+        <v>0.9521639347076416</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9907311797142029</v>
+        <v>0.9133025407791138</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9980441331863403</v>
+        <v>0.9508194923400879</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9903283715248108</v>
+        <v>0.9127213954925537</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9980720281600952</v>
+        <v>0.9493274688720703</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9981770515441895</v>
+        <v>0.9517117142677307</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9981780052185059</v>
+        <v>0.9516189098358154</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9981759786605835</v>
+        <v>0.9517514705657959</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9981650710105896</v>
+        <v>0.9516588449478149</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9981822967529297</v>
+        <v>0.9517140984535217</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9981786012649536</v>
+        <v>0.9517505168914795</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9981984496116638</v>
+        <v>0.952263355255127</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7664169073104858</v>
+        <v>0.5708152055740356</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9981586337089539</v>
+        <v>0.9520034790039062</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5011956691741943</v>
+        <v>0.8136831521987915</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9981603026390076</v>
+        <v>0.9512571692466736</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9981516003608704</v>
+        <v>0.9509924054145813</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9559836387634277</v>
+        <v>0.7291100025177002</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9803199768066406</v>
+        <v>0.8751915097236633</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9980556964874268</v>
+        <v>0.9498462677001953</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.981960654258728</v>
+        <v>0.6219751834869385</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9981570839881897</v>
+        <v>0.9512237310409546</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9810340404510498</v>
+        <v>0.8858229517936707</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.975212037563324</v>
+        <v>0.7718451023101807</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9981144666671753</v>
+        <v>0.9502412080764771</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9808040261268616</v>
+        <v>0.8820764422416687</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9800522327423096</v>
+        <v>0.8791087865829468</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9903337359428406</v>
+        <v>0.9131024479866028</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.998196542263031</v>
+        <v>0.9515953660011292</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9914993643760681</v>
+        <v>0.8936631679534912</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9978907704353333</v>
+        <v>0.9424432516098022</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9981023669242859</v>
+        <v>0.9502978324890137</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9531021118164062</v>
+        <v>0.7407055497169495</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7877451181411743</v>
+        <v>0.7659674286842346</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9808068871498108</v>
+        <v>0.6230019330978394</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9981977343559265</v>
+        <v>0.9524781107902527</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9808068871498108</v>
+        <v>0.6230019330978394</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9981977343559265</v>
+        <v>0.9524781107902527</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9808068871498108</v>
+        <v>0.6230019330978394</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9981125593185425</v>
+        <v>0.9518805146217346</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9232372045516968</v>
+        <v>0.6786088347434998</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9749699234962463</v>
+        <v>0.3500456809997559</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9324054718017578</v>
+        <v>0.7616059184074402</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9981117248535156</v>
+        <v>0.9501140117645264</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7799724340438843</v>
+        <v>0.3754243552684784</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9981503486633301</v>
+        <v>0.9505342245101929</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9980683922767639</v>
+        <v>0.9505875110626221</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9980869293212891</v>
+        <v>0.9504353404045105</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9963420033454895</v>
+        <v>0.9385696649551392</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9981341958045959</v>
+        <v>0.9504162073135376</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.998145580291748</v>
+        <v>0.9504027366638184</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9981157779693604</v>
+        <v>0.9502571821212769</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9980728626251221</v>
+        <v>0.9493100643157959</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7227175235748291</v>
+        <v>0.5837106704711914</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9912680387496948</v>
+        <v>0.9157599210739136</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9981788396835327</v>
+        <v>0.9518085718154907</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9912680387496948</v>
+        <v>0.9157599210739136</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9980854988098145</v>
+        <v>0.9491702318191528</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9817125201225281</v>
+        <v>0.6213563084602356</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9981353282928467</v>
+        <v>0.9512726664543152</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9909379482269287</v>
+        <v>0.9137818813323975</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9634742736816406</v>
+        <v>0.37552210688591</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9482211470603943</v>
+        <v>0.73039710521698</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9981720447540283</v>
+        <v>0.9521336555480957</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9752932190895081</v>
+        <v>0.7763773202896118</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9981662631034851</v>
+        <v>0.95133376121521</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9754214882850647</v>
+        <v>0.7746895551681519</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9981764554977417</v>
+        <v>0.9515686631202698</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9754285216331482</v>
+        <v>0.7743985056877136</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9981731176376343</v>
+        <v>0.9517735242843628</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.955208420753479</v>
+        <v>0.7820028066635132</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9980514049530029</v>
+        <v>0.9500811100006104</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9960305094718933</v>
+        <v>0.8225626945495605</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9981398582458496</v>
+        <v>0.9505964517593384</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9905631542205811</v>
+        <v>0.9146302342414856</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.998149037361145</v>
+        <v>0.952040433883667</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9864133596420288</v>
+        <v>0.8984940052032471</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9790741205215454</v>
+        <v>0.8786653876304626</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9904059767723083</v>
+        <v>0.9129208922386169</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9790741205215454</v>
+        <v>0.8786653876304626</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9902468919754028</v>
+        <v>0.9107351303100586</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.998082160949707</v>
+        <v>0.9495513439178467</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9981433153152466</v>
+        <v>0.9503764510154724</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9981430768966675</v>
+        <v>0.950334370136261</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9981433153152466</v>
+        <v>0.9503764510154724</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9981433153152466</v>
+        <v>0.9503764510154724</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9981430768966675</v>
+        <v>0.950334370136261</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9981624484062195</v>
+        <v>0.9509302973747253</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9980375170707703</v>
+        <v>0.9482524394989014</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9980960488319397</v>
+        <v>0.9501593112945557</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9981204867362976</v>
+        <v>0.9508058428764343</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9981196522712708</v>
+        <v>0.9506507515907288</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9784572124481201</v>
+        <v>0.62496018409729</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9981721639633179</v>
+        <v>0.9519012570381165</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9981880784034729</v>
+        <v>0.9521141052246094</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9981955885887146</v>
+        <v>0.9522714614868164</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9981399774551392</v>
+        <v>0.9519062042236328</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9981458187103271</v>
+        <v>0.9512215852737427</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9981245398521423</v>
+        <v>0.9513828754425049</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9981217980384827</v>
+        <v>0.9514282941818237</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7205419540405273</v>
+        <v>0.5410408973693848</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9981409311294556</v>
+        <v>0.9504820704460144</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9981057643890381</v>
+        <v>0.9503470659255981</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9813526272773743</v>
+        <v>0.6213447451591492</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9810726642608643</v>
+        <v>0.8870764374732971</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9981622099876404</v>
+        <v>0.9518826603889465</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9981847405433655</v>
+        <v>0.9519471526145935</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9981974959373474</v>
+        <v>0.9520958662033081</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9980977177619934</v>
+        <v>0.9503746032714844</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.782233715057373</v>
+        <v>0.5257745385169983</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9981449842453003</v>
+        <v>0.9511244893074036</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9981644749641418</v>
+        <v>0.9513886570930481</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9981145858764648</v>
+        <v>0.9503294229507446</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9792771935462952</v>
+        <v>0.879096508026123</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9982136487960815</v>
+        <v>0.9517864584922791</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9981179237365723</v>
+        <v>0.9505161046981812</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7704746723175049</v>
+        <v>0.5699170827865601</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9980292916297913</v>
+        <v>0.9478343725204468</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6478788256645203</v>
+        <v>0.5022967457771301</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9981204867362976</v>
+        <v>0.950222909450531</v>
       </c>
     </row>
   </sheetData>
